--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H2">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I2">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J2">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N2">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O2">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P2">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q2">
-        <v>177.3868756990886</v>
+        <v>5389.361978904644</v>
       </c>
       <c r="R2">
-        <v>177.3868756990886</v>
+        <v>48504.25781014179</v>
       </c>
       <c r="S2">
-        <v>0.1344096918551242</v>
+        <v>0.4578781414866193</v>
       </c>
       <c r="T2">
-        <v>0.1344096918551242</v>
+        <v>0.4578781414866192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H3">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I3">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J3">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N3">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P3">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q3">
-        <v>2.840748868061426</v>
+        <v>21.53770270593789</v>
       </c>
       <c r="R3">
-        <v>2.840748868061426</v>
+        <v>193.839324353441</v>
       </c>
       <c r="S3">
-        <v>0.002152493968277783</v>
+        <v>0.00182983502045088</v>
       </c>
       <c r="T3">
-        <v>0.002152493968277783</v>
+        <v>0.001829835020450879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H4">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I4">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J4">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N4">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O4">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P4">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q4">
-        <v>2.386326434888973</v>
+        <v>27.65963914419011</v>
       </c>
       <c r="R4">
-        <v>2.386326434888973</v>
+        <v>248.936752297711</v>
       </c>
       <c r="S4">
-        <v>0.001808168724518619</v>
+        <v>0.002349952409043111</v>
       </c>
       <c r="T4">
-        <v>0.001808168724518619</v>
+        <v>0.00234995240904311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H5">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I5">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J5">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N5">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O5">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P5">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q5">
-        <v>428.8554824947156</v>
+        <v>2394.447094410503</v>
       </c>
       <c r="R5">
-        <v>428.8554824947156</v>
+        <v>21550.02384969453</v>
       </c>
       <c r="S5">
-        <v>0.3249526382677672</v>
+        <v>0.2034313133480684</v>
       </c>
       <c r="T5">
-        <v>0.3249526382677672</v>
+        <v>0.2034313133480684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H6">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I6">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J6">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N6">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P6">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q6">
-        <v>6.867874084018604</v>
+        <v>9.569015751098554</v>
       </c>
       <c r="R6">
-        <v>6.867874084018604</v>
+        <v>86.121141759887</v>
       </c>
       <c r="S6">
-        <v>0.00520392974787298</v>
+        <v>0.0008129799343817123</v>
       </c>
       <c r="T6">
-        <v>0.00520392974787298</v>
+        <v>0.0008129799343817123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H7">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I7">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J7">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N7">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O7">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P7">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q7">
-        <v>5.769249673015482</v>
+        <v>12.28893936619744</v>
       </c>
       <c r="R7">
-        <v>5.769249673015482</v>
+        <v>110.600454295777</v>
       </c>
       <c r="S7">
-        <v>0.004371479387802708</v>
+        <v>0.001044063608987693</v>
       </c>
       <c r="T7">
-        <v>0.004371479387802708</v>
+        <v>0.001044063608987693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H8">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I8">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J8">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N8">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O8">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P8">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q8">
-        <v>675.7293204843463</v>
+        <v>3880.01410043042</v>
       </c>
       <c r="R8">
-        <v>675.7293204843463</v>
+        <v>34920.12690387378</v>
       </c>
       <c r="S8">
-        <v>0.5120140336528859</v>
+        <v>0.3296445204833014</v>
       </c>
       <c r="T8">
-        <v>0.5120140336528859</v>
+        <v>0.3296445204833014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H9">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I9">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J9">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N9">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P9">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q9">
-        <v>10.82141671821376</v>
+        <v>15.50584104705133</v>
       </c>
       <c r="R9">
-        <v>10.82141671821376</v>
+        <v>139.552569423462</v>
       </c>
       <c r="S9">
-        <v>0.008199610488649436</v>
+        <v>0.001317370350813546</v>
       </c>
       <c r="T9">
-        <v>0.008199610488649436</v>
+        <v>0.001317370350813546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H10">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I10">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J10">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N10">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O10">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P10">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q10">
-        <v>9.090361019925462</v>
+        <v>19.91326437384467</v>
       </c>
       <c r="R10">
-        <v>9.090361019925462</v>
+        <v>179.219379364602</v>
       </c>
       <c r="S10">
-        <v>0.006887953907101208</v>
+        <v>0.00169182335833394</v>
       </c>
       <c r="T10">
-        <v>0.006887953907101208</v>
+        <v>0.00169182335833394</v>
       </c>
     </row>
   </sheetData>
